--- a/data/trans_orig/P04C04_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P04C04_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9722E188-71F9-4C1E-BA72-A0483DC63AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{690789C0-3B41-4343-9CFF-7FDE6024AAF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EDD39B4B-27DC-4995-8E4F-DB770BFF32CF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BA7A1276-B256-4178-901A-57A7F4BDD1EB}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No</t>
@@ -158,7 +158,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>85,7%</t>
@@ -236,7 +236,7 @@
     <t>22,76%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>82,85%</t>
@@ -320,7 +320,7 @@
     <t>20,99%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>81,56%</t>
@@ -975,7 +975,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5886C47-760F-406C-A38E-87FE9E0E66C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{719002FF-0730-4F1B-923B-9C06F0C0D34D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P04C04_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P04C04_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{690789C0-3B41-4343-9CFF-7FDE6024AAF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6FBF939-F384-4CC1-ABF5-3D0EBCAC50CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BA7A1276-B256-4178-901A-57A7F4BDD1EB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0751596E-9ECD-4117-A49D-DAD31EF3C408}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="176">
-  <si>
-    <t>Hogares con refrigeración por aires acondicionado mediante aparatos móviles (NO ventiladores) en 2023 (Tasa respuesta: 99,71%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="174">
+  <si>
+    <t>Población con refrigeración por aire acondicionado mediante aparatos móviles (NO ventiladores) en la vivienda en 2023 (Tasa respuesta: 99,71%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,28 +74,28 @@
     <t>89,32%</t>
   </si>
   <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
   </si>
   <si>
     <t>81,21%</t>
   </si>
   <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
   </si>
   <si>
     <t>84,77%</t>
   </si>
   <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
   </si>
   <si>
     <t>Si, pero no funciona correctamente</t>
@@ -107,13 +107,13 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>7,29%</t>
+    <t>7,74%</t>
   </si>
   <si>
     <t>0,43%</t>
   </si>
   <si>
-    <t>2,19%</t>
+    <t>2,46%</t>
   </si>
   <si>
     <t>1,09%</t>
@@ -122,7 +122,7 @@
     <t>0,24%</t>
   </si>
   <si>
-    <t>3,22%</t>
+    <t>3,18%</t>
   </si>
   <si>
     <t>Si, funciona correctamente</t>
@@ -131,28 +131,28 @@
     <t>8,75%</t>
   </si>
   <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
   </si>
   <si>
     <t>18,36%</t>
   </si>
   <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
   </si>
   <si>
     <t>14,14%</t>
   </si>
   <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
   </si>
   <si>
     <t>100%</t>
@@ -164,40 +164,40 @@
     <t>85,7%</t>
   </si>
   <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
   </si>
   <si>
     <t>82,91%</t>
   </si>
   <si>
-    <t>70,61%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
+    <t>66,79%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
   </si>
   <si>
     <t>84,22%</t>
   </si>
   <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
   </si>
   <si>
     <t>0,3%</t>
   </si>
   <si>
-    <t>1,0%</t>
+    <t>1,01%</t>
   </si>
   <si>
     <t>0,07%</t>
   </si>
   <si>
-    <t>0,32%</t>
+    <t>0,33%</t>
   </si>
   <si>
     <t>0,18%</t>
@@ -206,34 +206,34 @@
     <t>0,03%</t>
   </si>
   <si>
-    <t>0,52%</t>
+    <t>0,53%</t>
   </si>
   <si>
     <t>14,0%</t>
   </si>
   <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
   </si>
   <si>
     <t>17,02%</t>
   </si>
   <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
   </si>
   <si>
     <t>15,6%</t>
   </si>
   <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -242,37 +242,37 @@
     <t>82,85%</t>
   </si>
   <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
   </si>
   <si>
     <t>85,87%</t>
   </si>
   <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
   </si>
   <si>
     <t>84,37%</t>
   </si>
   <si>
-    <t>77,46%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
   </si>
   <si>
     <t>2,28%</t>
   </si>
   <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
   </si>
   <si>
     <t>1,54%</t>
@@ -281,43 +281,43 @@
     <t>0,97%</t>
   </si>
   <si>
-    <t>2,29%</t>
+    <t>2,39%</t>
   </si>
   <si>
     <t>1,91%</t>
   </si>
   <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
   </si>
   <si>
     <t>14,87%</t>
   </si>
   <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
   </si>
   <si>
     <t>12,59%</t>
   </si>
   <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
   </si>
   <si>
     <t>13,72%</t>
   </si>
   <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -326,43 +326,43 @@
     <t>81,56%</t>
   </si>
   <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
   </si>
   <si>
     <t>87,13%</t>
   </si>
   <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
   </si>
   <si>
     <t>84,6%</t>
   </si>
   <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
   </si>
   <si>
     <t>0,25%</t>
   </si>
   <si>
-    <t>0,84%</t>
+    <t>0,85%</t>
   </si>
   <si>
     <t>0,62%</t>
   </si>
   <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
   </si>
   <si>
     <t>0,45%</t>
@@ -371,34 +371,34 @@
     <t>0,15%</t>
   </si>
   <si>
-    <t>1,13%</t>
+    <t>1,23%</t>
   </si>
   <si>
     <t>18,19%</t>
   </si>
   <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
   </si>
   <si>
     <t>12,25%</t>
   </si>
   <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
   </si>
   <si>
     <t>14,95%</t>
   </si>
   <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -407,88 +407,82 @@
     <t>84,43%</t>
   </si>
   <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
   </si>
   <si>
     <t>83,25%</t>
   </si>
   <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
   </si>
   <si>
     <t>1,46%</t>
   </si>
   <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
   </si>
   <si>
     <t>1,65%</t>
   </si>
   <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
   </si>
   <si>
     <t>1,56%</t>
   </si>
   <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
+    <t>2,27%</t>
   </si>
   <si>
     <t>14,1%</t>
   </si>
   <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
   </si>
   <si>
     <t>15,1%</t>
   </si>
   <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
   </si>
   <si>
     <t>14,65%</t>
   </si>
   <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
   </si>
   <si>
     <t>83,68%</t>
   </si>
   <si>
-    <t>78,11%</t>
+    <t>78,96%</t>
   </si>
   <si>
     <t>85,55%</t>
@@ -497,19 +491,19 @@
     <t>84,73%</t>
   </si>
   <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
   </si>
   <si>
     <t>84,24%</t>
   </si>
   <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
   </si>
   <si>
     <t>1,28%</t>
@@ -521,16 +515,16 @@
     <t>1,84%</t>
   </si>
   <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
   </si>
   <si>
     <t>1,18%</t>
   </si>
   <si>
-    <t>0,92%</t>
+    <t>0,94%</t>
   </si>
   <si>
     <t>1,52%</t>
@@ -539,28 +533,28 @@
     <t>15,04%</t>
   </si>
   <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
   </si>
   <si>
     <t>14,18%</t>
   </si>
   <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
   </si>
   <si>
     <t>14,58%</t>
   </si>
   <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -975,7 +969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{719002FF-0730-4F1B-923B-9C06F0C0D34D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40B77CE1-59CF-4E35-BF78-F8DAEBA4A1A2}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1332,7 +1326,7 @@
         <v>1357</v>
       </c>
       <c r="N8" s="7">
-        <v>982915</v>
+        <v>982914</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1434,7 +1428,7 @@
         <v>247</v>
       </c>
       <c r="N10" s="7">
-        <v>182055</v>
+        <v>182054</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>63</v>
@@ -1485,7 +1479,7 @@
         <v>1607</v>
       </c>
       <c r="N11" s="7">
-        <v>1167019</v>
+        <v>1167018</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>39</v>
@@ -1953,13 +1947,13 @@
         <v>1766888</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1974,13 +1968,13 @@
         <v>14075</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H21" s="7">
         <v>26</v>
@@ -1989,13 +1983,13 @@
         <v>18901</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M21" s="7">
         <v>38</v>
@@ -2004,13 +1998,13 @@
         <v>32976</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2025,13 +2019,13 @@
         <v>135642</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H22" s="7">
         <v>234</v>
@@ -2040,13 +2034,13 @@
         <v>173258</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M22" s="7">
         <v>377</v>
@@ -2055,13 +2049,13 @@
         <v>308900</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2129,13 +2123,13 @@
         <v>2826164</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H24" s="7">
         <v>4483</v>
@@ -2144,28 +2138,28 @@
         <v>3240817</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M24" s="7">
         <v>7343</v>
       </c>
       <c r="N24" s="7">
-        <v>6066980</v>
+        <v>6066981</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2180,13 +2174,13 @@
         <v>43207</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H25" s="7">
         <v>55</v>
@@ -2198,10 +2192,10 @@
         <v>26</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M25" s="7">
         <v>96</v>
@@ -2210,13 +2204,13 @@
         <v>84753</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2231,13 +2225,13 @@
         <v>507888</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H26" s="7">
         <v>814</v>
@@ -2246,13 +2240,13 @@
         <v>542288</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M26" s="7">
         <v>1279</v>
@@ -2261,13 +2255,13 @@
         <v>1050176</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2309,7 +2303,7 @@
         <v>8718</v>
       </c>
       <c r="N27" s="7">
-        <v>7201909</v>
+        <v>7201910</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>39</v>
@@ -2323,7 +2317,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P04C04_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P04C04_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6FBF939-F384-4CC1-ABF5-3D0EBCAC50CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{07E19CD6-DBDB-4A2A-B3D3-11AF03AAC914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0751596E-9ECD-4117-A49D-DAD31EF3C408}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{AB63E039-335E-4E1A-9159-E4F962AE3F23}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="148">
   <si>
     <t>Población con refrigeración por aire acondicionado mediante aparatos móviles (NO ventiladores) en la vivienda en 2023 (Tasa respuesta: 99,71%)</t>
   </si>
@@ -65,496 +65,418 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
   </si>
   <si>
     <t>Si, pero no funciona correctamente</t>
   </si>
   <si>
-    <t>1,93%</t>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>Si, funciona correctamente</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>68,96%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
   </si>
   <si>
     <t>1,09%</t>
   </si>
   <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>Si, funciona correctamente</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
   </si>
   <si>
     <t>14,51%</t>
   </si>
   <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
   </si>
   <si>
     <t>1,81%</t>
   </si>
   <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -969,8 +891,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40B77CE1-59CF-4E35-BF78-F8DAEBA4A1A2}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4694AD8C-662E-488B-89B9-2C2E01ADA139}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1087,10 +1009,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>103</v>
+        <v>626</v>
       </c>
       <c r="D4" s="7">
-        <v>91087</v>
+        <v>545962</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1102,10 +1024,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>194</v>
+        <v>1028</v>
       </c>
       <c r="I4" s="7">
-        <v>105601</v>
+        <v>577492</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1117,10 +1039,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>297</v>
+        <v>1654</v>
       </c>
       <c r="N4" s="7">
-        <v>196688</v>
+        <v>1123453</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1138,10 +1060,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>1970</v>
+        <v>3570</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1153,85 +1075,85 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" s="7">
-        <v>558</v>
+        <v>900</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N5" s="7">
-        <v>2527</v>
+        <v>4470</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="D6" s="7">
-        <v>8926</v>
+        <v>84891</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>47</v>
+        <v>208</v>
       </c>
       <c r="I6" s="7">
-        <v>23871</v>
+        <v>144750</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>60</v>
+        <v>307</v>
       </c>
       <c r="N6" s="7">
-        <v>32797</v>
+        <v>229641</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1240,102 +1162,102 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>118</v>
+        <v>729</v>
       </c>
       <c r="D7" s="7">
-        <v>101982</v>
+        <v>634422</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>242</v>
+        <v>1238</v>
       </c>
       <c r="I7" s="7">
-        <v>130030</v>
+        <v>723142</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>360</v>
+        <v>1967</v>
       </c>
       <c r="N7" s="7">
-        <v>232012</v>
+        <v>1357564</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>523</v>
+        <v>833</v>
       </c>
       <c r="D8" s="7">
-        <v>470300</v>
+        <v>822203</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H8" s="7">
-        <v>834</v>
+        <v>1268</v>
       </c>
       <c r="I8" s="7">
-        <v>512615</v>
+        <v>820131</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M8" s="7">
-        <v>1357</v>
+        <v>2101</v>
       </c>
       <c r="N8" s="7">
-        <v>982914</v>
+        <v>1642334</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1344,100 +1266,100 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D9" s="7">
-        <v>1647</v>
+        <v>23180</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H9" s="7">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I9" s="7">
-        <v>403</v>
+        <v>14756</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M9" s="7">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="N9" s="7">
-        <v>2049</v>
+        <v>37936</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="D10" s="7">
-        <v>76827</v>
+        <v>346953</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
-        <v>161</v>
+        <v>220</v>
       </c>
       <c r="I10" s="7">
-        <v>105228</v>
+        <v>120824</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
-        <v>247</v>
+        <v>327</v>
       </c>
       <c r="N10" s="7">
-        <v>182054</v>
+        <v>467777</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1446,102 +1368,102 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>611</v>
+        <v>963</v>
       </c>
       <c r="D11" s="7">
-        <v>548773</v>
+        <v>1192336</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>996</v>
+        <v>1511</v>
       </c>
       <c r="I11" s="7">
-        <v>618245</v>
+        <v>955711</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>1607</v>
+        <v>2474</v>
       </c>
       <c r="N11" s="7">
-        <v>1167018</v>
+        <v>2148046</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>833</v>
+        <v>555</v>
       </c>
       <c r="D12" s="7">
-        <v>860550</v>
+        <v>570038</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H12" s="7">
-        <v>1268</v>
+        <v>888</v>
       </c>
       <c r="I12" s="7">
-        <v>907606</v>
+        <v>827681</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M12" s="7">
-        <v>2101</v>
+        <v>1443</v>
       </c>
       <c r="N12" s="7">
-        <v>1768156</v>
+        <v>1397719</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1550,46 +1472,46 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>23711</v>
+        <v>1544</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="H13" s="7">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="I13" s="7">
-        <v>16270</v>
+        <v>4703</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M13" s="7">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="N13" s="7">
-        <v>39981</v>
+        <v>6248</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>84</v>
@@ -1598,13 +1520,13 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="D14" s="7">
-        <v>154431</v>
+        <v>130654</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>85</v>
@@ -1616,10 +1538,10 @@
         <v>87</v>
       </c>
       <c r="H14" s="7">
-        <v>220</v>
+        <v>152</v>
       </c>
       <c r="I14" s="7">
-        <v>133043</v>
+        <v>99153</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>88</v>
@@ -1631,10 +1553,10 @@
         <v>90</v>
       </c>
       <c r="M14" s="7">
-        <v>327</v>
+        <v>268</v>
       </c>
       <c r="N14" s="7">
-        <v>287474</v>
+        <v>229807</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>91</v>
@@ -1652,49 +1574,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>963</v>
+        <v>673</v>
       </c>
       <c r="D15" s="7">
-        <v>1038692</v>
+        <v>702236</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>1511</v>
+        <v>1044</v>
       </c>
       <c r="I15" s="7">
-        <v>1056919</v>
+        <v>931537</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>2474</v>
+        <v>1717</v>
       </c>
       <c r="N15" s="7">
-        <v>2095612</v>
+        <v>1633773</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1705,10 +1627,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>555</v>
+        <v>846</v>
       </c>
       <c r="D16" s="7">
-        <v>592267</v>
+        <v>779230</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>95</v>
@@ -1720,10 +1642,10 @@
         <v>97</v>
       </c>
       <c r="H16" s="7">
-        <v>888</v>
+        <v>1299</v>
       </c>
       <c r="I16" s="7">
-        <v>760068</v>
+        <v>863872</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>98</v>
@@ -1735,10 +1657,10 @@
         <v>100</v>
       </c>
       <c r="M16" s="7">
-        <v>1443</v>
+        <v>2145</v>
       </c>
       <c r="N16" s="7">
-        <v>1352334</v>
+        <v>1643102</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>101</v>
@@ -1756,28 +1678,28 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D17" s="7">
-        <v>1804</v>
+        <v>14013</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>104</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H17" s="7">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="I17" s="7">
-        <v>5415</v>
+        <v>17236</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>106</v>
+        <v>23</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>107</v>
@@ -1786,10 +1708,10 @@
         <v>108</v>
       </c>
       <c r="M17" s="7">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="N17" s="7">
-        <v>7219</v>
+        <v>31249</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>109</v>
@@ -1804,13 +1726,13 @@
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="D18" s="7">
-        <v>132062</v>
+        <v>130033</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>112</v>
@@ -1822,10 +1744,10 @@
         <v>114</v>
       </c>
       <c r="H18" s="7">
-        <v>152</v>
+        <v>234</v>
       </c>
       <c r="I18" s="7">
-        <v>106888</v>
+        <v>210800</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>115</v>
@@ -1837,10 +1759,10 @@
         <v>117</v>
       </c>
       <c r="M18" s="7">
-        <v>268</v>
+        <v>377</v>
       </c>
       <c r="N18" s="7">
-        <v>238950</v>
+        <v>340833</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>118</v>
@@ -1858,96 +1780,96 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>673</v>
+        <v>1001</v>
       </c>
       <c r="D19" s="7">
-        <v>726133</v>
+        <v>923275</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>1044</v>
+        <v>1559</v>
       </c>
       <c r="I19" s="7">
-        <v>872371</v>
+        <v>1091909</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>1717</v>
+        <v>2560</v>
       </c>
       <c r="N19" s="7">
-        <v>1598504</v>
+        <v>2015184</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>846</v>
+        <v>2860</v>
       </c>
       <c r="D20" s="7">
-        <v>811960</v>
+        <v>2717431</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>4483</v>
+      </c>
+      <c r="I20" s="7">
+        <v>3089176</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="H20" s="7">
-        <v>1299</v>
-      </c>
-      <c r="I20" s="7">
-        <v>954927</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>7343</v>
+      </c>
+      <c r="N20" s="7">
+        <v>5806606</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2145</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1766888</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>128</v>
@@ -1962,10 +1884,10 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="D21" s="7">
-        <v>14075</v>
+        <v>42307</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>130</v>
@@ -1977,31 +1899,31 @@
         <v>132</v>
       </c>
       <c r="H21" s="7">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="I21" s="7">
-        <v>18901</v>
+        <v>37596</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="M21" s="7">
+        <v>96</v>
+      </c>
+      <c r="N21" s="7">
+        <v>79903</v>
+      </c>
+      <c r="O21" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="M21" s="7">
-        <v>38</v>
-      </c>
-      <c r="N21" s="7">
-        <v>32976</v>
-      </c>
-      <c r="O21" s="7" t="s">
+      <c r="P21" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>137</v>
@@ -2010,13 +1932,13 @@
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>143</v>
+        <v>465</v>
       </c>
       <c r="D22" s="7">
-        <v>135642</v>
+        <v>692530</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>138</v>
@@ -2028,10 +1950,10 @@
         <v>140</v>
       </c>
       <c r="H22" s="7">
-        <v>234</v>
+        <v>814</v>
       </c>
       <c r="I22" s="7">
-        <v>173258</v>
+        <v>575527</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>141</v>
@@ -2043,10 +1965,10 @@
         <v>143</v>
       </c>
       <c r="M22" s="7">
-        <v>377</v>
+        <v>1279</v>
       </c>
       <c r="N22" s="7">
-        <v>308900</v>
+        <v>1268057</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>144</v>
@@ -2064,268 +1986,61 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>1001</v>
+        <v>3366</v>
       </c>
       <c r="D23" s="7">
-        <v>961677</v>
+        <v>3452268</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H23" s="7">
-        <v>1559</v>
+        <v>5352</v>
       </c>
       <c r="I23" s="7">
-        <v>1147086</v>
+        <v>3702299</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M23" s="7">
-        <v>2560</v>
+        <v>8718</v>
       </c>
       <c r="N23" s="7">
-        <v>2108764</v>
+        <v>7154566</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>2860</v>
-      </c>
-      <c r="D24" s="7">
-        <v>2826164</v>
-      </c>
-      <c r="E24" s="7" t="s">
+      <c r="A24" t="s">
         <v>147</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="H24" s="7">
-        <v>4483</v>
-      </c>
-      <c r="I24" s="7">
-        <v>3240817</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="M24" s="7">
-        <v>7343</v>
-      </c>
-      <c r="N24" s="7">
-        <v>6066981</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7">
-        <v>41</v>
-      </c>
-      <c r="D25" s="7">
-        <v>43207</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="H25" s="7">
-        <v>55</v>
-      </c>
-      <c r="I25" s="7">
-        <v>41546</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="M25" s="7">
-        <v>96</v>
-      </c>
-      <c r="N25" s="7">
-        <v>84753</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="7">
-        <v>465</v>
-      </c>
-      <c r="D26" s="7">
-        <v>507888</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="H26" s="7">
-        <v>814</v>
-      </c>
-      <c r="I26" s="7">
-        <v>542288</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="M26" s="7">
-        <v>1279</v>
-      </c>
-      <c r="N26" s="7">
-        <v>1050176</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>3366</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3377258</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H27" s="7">
-        <v>5352</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3824651</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M27" s="7">
-        <v>8718</v>
-      </c>
-      <c r="N27" s="7">
-        <v>7201910</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>173</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
